--- a/PayrollProject/templates/CourtOrderDEO2012ChildMaintenanceInputSheet.xlsx
+++ b/PayrollProject/templates/CourtOrderDEO2012ChildMaintenanceInputSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\ProvarAz\PayrollProject\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534AC860-BA66-4068-BC81-0C3D70FF8308}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAD98CD-BEB0-4DB7-A24E-724C430A1062}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" firstSheet="1" activeTab="3" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
+    <workbookView xWindow="0" yWindow="630" windowWidth="20490" windowHeight="7485" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
   </bookViews>
   <sheets>
     <sheet name="October2018PayPeriod" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
   <si>
     <t>EmpName</t>
   </si>
@@ -62,28 +62,37 @@
     <t>12000</t>
   </si>
   <si>
-    <t>October-2018</t>
-  </si>
-  <si>
     <t>C Employees over State pension age (attach passport/birth certificate)</t>
   </si>
   <si>
-    <t>November-2018</t>
-  </si>
-  <si>
-    <t>December-2018</t>
-  </si>
-  <si>
-    <t>January-2019</t>
-  </si>
-  <si>
     <t>DO NOT TOUCH AUTOMATION EMP 117</t>
   </si>
   <si>
     <t>DEO2012ChildMaintenance_Payroll</t>
   </si>
   <si>
-    <t>DO NOT TOUCH DEO2012 Child Maintance</t>
+    <t>October-2019</t>
+  </si>
+  <si>
+    <t>DO NOT DEO2012CM OCT</t>
+  </si>
+  <si>
+    <t>DO NOT DEO2012CM NOV</t>
+  </si>
+  <si>
+    <t>DO NOT DEO2012CM DEC</t>
+  </si>
+  <si>
+    <t>DO NOT DEO2012CM JAN</t>
+  </si>
+  <si>
+    <t>January-2020</t>
+  </si>
+  <si>
+    <t>December-2019</t>
+  </si>
+  <si>
+    <t>November-2019</t>
   </si>
 </sst>
 </file>
@@ -141,7 +150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -162,6 +171,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -479,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656F5891-C399-4E72-BDAD-0F4BF0D31C04}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,10 +529,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -531,13 +541,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -553,7 +563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C9D326-24C3-49F9-A6BB-B9862FE77EE5}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -593,10 +603,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -605,13 +615,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -628,7 +638,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,10 +677,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -679,13 +689,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -701,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F0D33A-5E32-4612-B798-7FBD2BFD601E}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,10 +751,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -752,11 +762,11 @@
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>15</v>
+      <c r="E2" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>16</v>
